--- a/data/trans_orig/P39A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>50031</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37828</v>
+        <v>37694</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65240</v>
+        <v>65398</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08525710692243692</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06446118951418488</v>
+        <v>0.06423343696243367</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1111744643287594</v>
+        <v>0.1114431073574194</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -764,19 +764,19 @@
         <v>45319</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33729</v>
+        <v>32878</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60891</v>
+        <v>61207</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07567014684897153</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05631788370787344</v>
+        <v>0.05489793742226493</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1016715825915371</v>
+        <v>0.102200383171341</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -785,19 +785,19 @@
         <v>95350</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78085</v>
+        <v>78410</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115703</v>
+        <v>118402</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08041484109230676</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06585465364768479</v>
+        <v>0.06612879130024021</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09758052934478501</v>
+        <v>0.09985617886999673</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>103882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87000</v>
+        <v>86466</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124087</v>
+        <v>122796</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1770230399981307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1482548415482553</v>
+        <v>0.1473453572841251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2114539265778421</v>
+        <v>0.2092545791318105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -835,19 +835,19 @@
         <v>86838</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69963</v>
+        <v>69620</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>105522</v>
+        <v>106383</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1449972107425948</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1168192770585559</v>
+        <v>0.116246425086281</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1761944741315112</v>
+        <v>0.1776319465106807</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>183</v>
@@ -856,19 +856,19 @@
         <v>190720</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>166877</v>
+        <v>166056</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>217026</v>
+        <v>216480</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1608471534295734</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.140738821505123</v>
+        <v>0.140046608176755</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.183032897879441</v>
+        <v>0.1825720712770515</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>141774</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120868</v>
+        <v>120494</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>164545</v>
+        <v>163909</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2415936193061053</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2059690028651133</v>
+        <v>0.2053314812956218</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.280397085381875</v>
+        <v>0.2793137125128187</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>89</v>
@@ -906,19 +906,19 @@
         <v>95879</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>77658</v>
+        <v>79138</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>115206</v>
+        <v>117178</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1600924584610412</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1296689516262276</v>
+        <v>0.1321393789629123</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1923637870219083</v>
+        <v>0.1956561846244658</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>224</v>
@@ -927,19 +927,19 @@
         <v>237652</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>210089</v>
+        <v>210634</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>266971</v>
+        <v>266605</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2004282985733841</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1771819069913104</v>
+        <v>0.1776415991628806</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2251545701254602</v>
+        <v>0.2248456239049678</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>77836</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61838</v>
+        <v>61480</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>95282</v>
+        <v>96018</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1326393157971946</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1053768902606662</v>
+        <v>0.1047658505919927</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1623681203962812</v>
+        <v>0.1636219758558187</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -977,19 +977,19 @@
         <v>86785</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68931</v>
+        <v>69951</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104980</v>
+        <v>105560</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1449090661139351</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1150960409180532</v>
+        <v>0.1167993463619506</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1752899108539186</v>
+        <v>0.1762581471781291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -998,19 +998,19 @@
         <v>164622</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>142834</v>
+        <v>140873</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>191064</v>
+        <v>188429</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.138836628839879</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1204613783991363</v>
+        <v>0.1188073014103098</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1611374644102271</v>
+        <v>0.158914975867278</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>213304</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>189883</v>
+        <v>188692</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>236004</v>
+        <v>238082</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3634869179761325</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3235752176165262</v>
+        <v>0.32154523679534</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.402168330872419</v>
+        <v>0.4057096697474928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>265</v>
@@ -1048,19 +1048,19 @@
         <v>284075</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>260245</v>
+        <v>260249</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>308374</v>
+        <v>308848</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4743311178334574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.43454084234878</v>
+        <v>0.4345482758625659</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5149046505596271</v>
+        <v>0.5156957842852824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>468</v>
@@ -1069,19 +1069,19 @@
         <v>497379</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>463839</v>
+        <v>464304</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>530486</v>
+        <v>533418</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4194730780648568</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3911865273905547</v>
+        <v>0.3915785165064785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4473942504086302</v>
+        <v>0.449866928194186</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>72179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56845</v>
+        <v>57403</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90947</v>
+        <v>91259</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08953814197176498</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07051665000839344</v>
+        <v>0.07120872885751547</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1128206671893986</v>
+        <v>0.1132071464265423</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -1194,19 +1194,19 @@
         <v>72619</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57643</v>
+        <v>58072</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90283</v>
+        <v>90386</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08227510426776181</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06530788456571382</v>
+        <v>0.06579314939815224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1022878938773836</v>
+        <v>0.1024045323937636</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -1215,19 +1215,19 @@
         <v>144798</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>122654</v>
+        <v>121132</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>172196</v>
+        <v>171188</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08574208543962106</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07262978492912511</v>
+        <v>0.07172819153139286</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1019657495476638</v>
+        <v>0.1013689301053533</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>167699</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>141648</v>
+        <v>145113</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>189956</v>
+        <v>195825</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2080314148161172</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1757148072096395</v>
+        <v>0.1800140914951579</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2356409868828242</v>
+        <v>0.242922130298537</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -1265,19 +1265,19 @@
         <v>133847</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111798</v>
+        <v>114417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157020</v>
+        <v>157786</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1516445814594871</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1266638516608667</v>
+        <v>0.1296310756123864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1778979630455391</v>
+        <v>0.1787666773420847</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>278</v>
@@ -1286,19 +1286,19 @@
         <v>301546</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>271997</v>
+        <v>269343</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>336775</v>
+        <v>334384</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1785606044178221</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1610630898862462</v>
+        <v>0.1594914088863807</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1994216087512617</v>
+        <v>0.1980057417891204</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>204792</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>180968</v>
+        <v>179672</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>230528</v>
+        <v>229924</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2540454028261473</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2244921628804791</v>
+        <v>0.2228839474418282</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2859711735142683</v>
+        <v>0.2852225244886851</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>190</v>
@@ -1336,19 +1336,19 @@
         <v>210753</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>186165</v>
+        <v>188370</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>240936</v>
+        <v>240878</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2387767461469102</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2109183516281528</v>
+        <v>0.2134166745802048</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2729723395760068</v>
+        <v>0.2729074469653155</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>383</v>
@@ -1357,19 +1357,19 @@
         <v>415545</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>381178</v>
+        <v>378280</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>451667</v>
+        <v>455371</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2460651766058794</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2257148474765226</v>
+        <v>0.2239983957652485</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2674544783704463</v>
+        <v>0.2696482449920168</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>100998</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>82697</v>
+        <v>82259</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121804</v>
+        <v>122352</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1252882104705698</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1025866022518296</v>
+        <v>0.1020433581991872</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1510979563274605</v>
+        <v>0.1517784719313964</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>117</v>
@@ -1407,19 +1407,19 @@
         <v>126956</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>107577</v>
+        <v>106709</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>150135</v>
+        <v>150084</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1438367933922711</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.121880963046991</v>
+        <v>0.1208980955471216</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1700983304458233</v>
+        <v>0.1700399664766359</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>206</v>
@@ -1428,19 +1428,19 @@
         <v>227954</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>199276</v>
+        <v>199339</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>256487</v>
+        <v>257487</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1349827036332762</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1180014721796438</v>
+        <v>0.1180383585007232</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1518786963000978</v>
+        <v>0.1524712155680202</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>260456</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>235721</v>
+        <v>234521</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>287977</v>
+        <v>290553</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3230968299154007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2924126271381727</v>
+        <v>0.2909248144505098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3572366519324955</v>
+        <v>0.3604324576162168</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>307</v>
@@ -1478,19 +1478,19 @@
         <v>338462</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>309248</v>
+        <v>309075</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>370079</v>
+        <v>368216</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3834667747335698</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3503675202053777</v>
+        <v>0.350172207609747</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4192876052361554</v>
+        <v>0.4171762591470519</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>543</v>
@@ -1499,19 +1499,19 @@
         <v>598918</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>561634</v>
+        <v>559382</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>645650</v>
+        <v>646901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3546494299034013</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3325714708029868</v>
+        <v>0.3312382110195409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3823216080546686</v>
+        <v>0.3830621994090305</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>53070</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39606</v>
+        <v>39034</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69833</v>
+        <v>70718</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08701613249370017</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06493956729877594</v>
+        <v>0.06400200889143105</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1145011755270371</v>
+        <v>0.1159531516816493</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -1624,19 +1624,19 @@
         <v>49308</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35843</v>
+        <v>36066</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65482</v>
+        <v>64671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07314128422938806</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05316786354361182</v>
+        <v>0.05349808839716894</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09713243212306877</v>
+        <v>0.09592921668679588</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -1645,19 +1645,19 @@
         <v>102378</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83342</v>
+        <v>81641</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>123604</v>
+        <v>125888</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07973148042623128</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06490604257051082</v>
+        <v>0.06358173173094916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09626203522002127</v>
+        <v>0.09804028145080734</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>133975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>113921</v>
+        <v>113228</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>156559</v>
+        <v>157262</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2196720296464116</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1867912495603024</v>
+        <v>0.1856545832384947</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2567030938111471</v>
+        <v>0.2578547265657259</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -1695,19 +1695,19 @@
         <v>111319</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>92245</v>
+        <v>92148</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>134514</v>
+        <v>134001</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1651237508821039</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.136831462560196</v>
+        <v>0.1366868948469162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1995309191402512</v>
+        <v>0.1987697962071679</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>227</v>
@@ -1716,19 +1716,19 @@
         <v>245294</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>216795</v>
+        <v>219580</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>273589</v>
+        <v>278015</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1910327808339141</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1688384021475907</v>
+        <v>0.1710070345318548</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2130690217968429</v>
+        <v>0.2165157201404568</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>180335</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>158055</v>
+        <v>157586</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>207222</v>
+        <v>204853</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2956871386665206</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2591557931942807</v>
+        <v>0.2583867680398666</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3397715022046335</v>
+        <v>0.3358878681881601</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>148</v>
@@ -1766,19 +1766,19 @@
         <v>165764</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>142465</v>
+        <v>142662</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>191766</v>
+        <v>190673</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2458853524665345</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2113245266793361</v>
+        <v>0.2116170954708438</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2844550813789096</v>
+        <v>0.282833224754254</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>308</v>
@@ -1787,19 +1787,19 @@
         <v>346100</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>311230</v>
+        <v>316959</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>379207</v>
+        <v>379753</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2695399204847902</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2423839324067649</v>
+        <v>0.2468453814915587</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2953234593732865</v>
+        <v>0.2957486780911167</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>62947</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48126</v>
+        <v>48172</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79208</v>
+        <v>78012</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1032111826721901</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07890946025327379</v>
+        <v>0.07898473739523314</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.129873457407858</v>
+        <v>0.1279118882507916</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -1837,19 +1837,19 @@
         <v>102762</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>84977</v>
+        <v>84206</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>122960</v>
+        <v>122833</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1524314730167457</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1260505527320381</v>
+        <v>0.1249056738262985</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1823924407802781</v>
+        <v>0.182203474735658</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -1858,19 +1858,19 @@
         <v>165709</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>139857</v>
+        <v>143440</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>194414</v>
+        <v>191762</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1290531005792947</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.108919895957403</v>
+        <v>0.1117102728350611</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1514082103293962</v>
+        <v>0.1493427924944649</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>179558</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154446</v>
+        <v>155141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>205690</v>
+        <v>202688</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2944135165211774</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2532373720384576</v>
+        <v>0.2543780519078126</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3372603383169367</v>
+        <v>0.3323385006258435</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -1908,19 +1908,19 @@
         <v>244999</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>219030</v>
+        <v>216298</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272351</v>
+        <v>270615</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3634181394052278</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3248963437459789</v>
+        <v>0.3208439226236526</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4039901789064609</v>
+        <v>0.4014141354123007</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>384</v>
@@ -1929,19 +1929,19 @@
         <v>424558</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>384165</v>
+        <v>389026</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>461625</v>
+        <v>461192</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3306427176757697</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2991847183130629</v>
+        <v>0.3029703688457864</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3595099575245448</v>
+        <v>0.3591730312721708</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>72111</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57324</v>
+        <v>57082</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>90129</v>
+        <v>90358</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09256368242306816</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07358259630096678</v>
+        <v>0.07327180885264936</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1156932405772972</v>
+        <v>0.1159861013532848</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>75</v>
@@ -2054,19 +2054,19 @@
         <v>80340</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63884</v>
+        <v>64068</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>99152</v>
+        <v>100272</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08662751722870818</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06888447221737114</v>
+        <v>0.0690825270811137</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1069123131323507</v>
+        <v>0.1081195548179447</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>148</v>
@@ -2075,19 +2075,19 @@
         <v>152450</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>128342</v>
+        <v>131313</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>176581</v>
+        <v>178698</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08933752293317372</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0752099433220829</v>
+        <v>0.07695058558879989</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.103478617502439</v>
+        <v>0.1047187265187232</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>183836</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>161863</v>
+        <v>161011</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>208535</v>
+        <v>207911</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2359784487819563</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2077735140206175</v>
+        <v>0.2066788570824563</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.267682911397476</v>
+        <v>0.2668820291456386</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>164</v>
@@ -2125,19 +2125,19 @@
         <v>171074</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>147420</v>
+        <v>147840</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>195313</v>
+        <v>194376</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1844629696162961</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1589581319297003</v>
+        <v>0.1594111977948993</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2105993279084856</v>
+        <v>0.2095894098642301</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>346</v>
@@ -2146,19 +2146,19 @@
         <v>354910</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>319863</v>
+        <v>322681</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>388973</v>
+        <v>388335</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2079810554235876</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1874431032884106</v>
+        <v>0.1890948233788222</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2279425454233535</v>
+        <v>0.227568567865769</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>155423</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>131891</v>
+        <v>134228</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>178666</v>
+        <v>181224</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1995063571062046</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1692994250860352</v>
+        <v>0.1722998234111546</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.229341614995113</v>
+        <v>0.2326259649913609</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>176</v>
@@ -2196,19 +2196,19 @@
         <v>185083</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>160308</v>
+        <v>163004</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>210752</v>
+        <v>211162</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1995684316139265</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.172854582943424</v>
+        <v>0.1757613730500981</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2272466152371981</v>
+        <v>0.2276884008928523</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>323</v>
@@ -2217,19 +2217,19 @@
         <v>340506</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>305778</v>
+        <v>307387</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>375468</v>
+        <v>375219</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1995400930713623</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1791891826585371</v>
+        <v>0.1801322975988768</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.220028151212698</v>
+        <v>0.2198823055273065</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>96046</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78350</v>
+        <v>78100</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>118897</v>
+        <v>116722</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.12328754451062</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1005729567418364</v>
+        <v>0.1002524799678382</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1526205398508647</v>
+        <v>0.1498284714467829</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>102</v>
@@ -2267,19 +2267,19 @@
         <v>105417</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87296</v>
+        <v>86743</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>124711</v>
+        <v>124679</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1136675643184143</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09412871248392578</v>
+        <v>0.09353217082325006</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1344712913378009</v>
+        <v>0.1344371993985357</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>190</v>
@@ -2288,19 +2288,19 @@
         <v>201463</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>177347</v>
+        <v>174674</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>232489</v>
+        <v>232211</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1180593223548134</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1039269889908616</v>
+        <v>0.1023609514635632</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1362413643700055</v>
+        <v>0.1360781624536067</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>271622</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>244048</v>
+        <v>245254</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>301194</v>
+        <v>298614</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.348663967178151</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3132681396603142</v>
+        <v>0.3148161563364879</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3866227946229102</v>
+        <v>0.3833111730957765</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>365</v>
@@ -2338,19 +2338,19 @@
         <v>385502</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>353193</v>
+        <v>354771</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>416110</v>
+        <v>415314</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4156735172226549</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3808364263633496</v>
+        <v>0.3825380222945655</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4486769832019138</v>
+        <v>0.4478191904851612</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>617</v>
@@ -2359,19 +2359,19 @@
         <v>657124</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>614604</v>
+        <v>615814</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>696883</v>
+        <v>697156</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.385082006217063</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3601646617404292</v>
+        <v>0.3608737474615906</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4083807970090985</v>
+        <v>0.408540748780199</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>247390</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>219464</v>
+        <v>217907</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>280348</v>
+        <v>280210</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08892943126234061</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07889052858193434</v>
+        <v>0.07833114274861423</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1007766369698185</v>
+        <v>0.1007269494480595</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>227</v>
@@ -2484,19 +2484,19 @@
         <v>247586</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>218324</v>
+        <v>217080</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>280876</v>
+        <v>278748</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0803041084354595</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07081307902883181</v>
+        <v>0.07040968492353468</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0911017644523659</v>
+        <v>0.09041165055093808</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>461</v>
@@ -2505,19 +2505,19 @@
         <v>494976</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>456080</v>
+        <v>454635</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>544681</v>
+        <v>540167</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08439526965037066</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07776329240594428</v>
+        <v>0.07751697717154549</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09287016237868662</v>
+        <v>0.09210052598618364</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>589392</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>547112</v>
+        <v>546549</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>631029</v>
+        <v>634255</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2118686339887473</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1966702935971737</v>
+        <v>0.1964678557601689</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.226835886877969</v>
+        <v>0.2279956235602088</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>466</v>
@@ -2555,19 +2555,19 @@
         <v>503078</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>459327</v>
+        <v>465084</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>549544</v>
+        <v>547594</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1631726518984769</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.148982106820566</v>
+        <v>0.1508492245265745</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1782438195106046</v>
+        <v>0.1776113310971656</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1034</v>
@@ -2576,19 +2576,19 @@
         <v>1092470</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1032728</v>
+        <v>1031136</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1155187</v>
+        <v>1150352</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1862701193496472</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1760839390715896</v>
+        <v>0.1758124019125209</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1969636050446631</v>
+        <v>0.1961393356163426</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>682324</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>633914</v>
+        <v>639663</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>729423</v>
+        <v>730579</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2452749313236692</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2278729164416589</v>
+        <v>0.229939571872717</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2622055966438511</v>
+        <v>0.2626211287725177</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>603</v>
@@ -2626,19 +2626,19 @@
         <v>657479</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>609991</v>
+        <v>606547</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>704714</v>
+        <v>706676</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2132525288741497</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1978498124591617</v>
+        <v>0.1967326828541574</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2285731784943547</v>
+        <v>0.2292093944598915</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1238</v>
@@ -2647,19 +2647,19 @@
         <v>1339803</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1270980</v>
+        <v>1280283</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1410917</v>
+        <v>1413466</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2284413877191146</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2167068322131732</v>
+        <v>0.2182929985814337</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.240566570451914</v>
+        <v>0.2410011555189589</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>337827</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>302975</v>
+        <v>299656</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>372351</v>
+        <v>375557</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1214385692082953</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1089104987447169</v>
+        <v>0.1077174404781914</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1338491561299077</v>
+        <v>0.1350014816953614</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>395</v>
@@ -2697,19 +2697,19 @@
         <v>421920</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>382219</v>
+        <v>384136</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>461632</v>
+        <v>457700</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1368493213208132</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1239720818547623</v>
+        <v>0.1245939960636163</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1497296468618191</v>
+        <v>0.1484543073202183</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>699</v>
@@ -2718,19 +2718,19 @@
         <v>759747</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>705638</v>
+        <v>709404</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>814808</v>
+        <v>817926</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1295396967884012</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.120313837999407</v>
+        <v>0.1209559477080883</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1389277037678169</v>
+        <v>0.1394593578318797</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>924941</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>872472</v>
+        <v>871645</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>979686</v>
+        <v>971553</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3324884342169475</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3136274100586114</v>
+        <v>0.3133300191480812</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3521675230618208</v>
+        <v>0.3492441991530669</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1162</v>
@@ -2768,19 +2768,19 @@
         <v>1253039</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1196756</v>
+        <v>1193408</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1309770</v>
+        <v>1307154</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4064213894711006</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3881661033284557</v>
+        <v>0.3870803983542003</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4248221360344191</v>
+        <v>0.4239736468066004</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2012</v>
@@ -2789,19 +2789,19 @@
         <v>2177980</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2097698</v>
+        <v>2099366</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2249223</v>
+        <v>2251714</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3713535264924663</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3576652008527798</v>
+        <v>0.3579496556631147</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.383500764938666</v>
+        <v>0.3839254711540462</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>67347</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53665</v>
+        <v>52470</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85789</v>
+        <v>84637</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1230906299446988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09808395181592942</v>
+        <v>0.09590054122814848</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1567969717671947</v>
+        <v>0.1546922233542733</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -3154,19 +3154,19 @@
         <v>50592</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38721</v>
+        <v>37590</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66084</v>
+        <v>65282</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08786033164889291</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0672447070757</v>
+        <v>0.06527978542754259</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1147642267031573</v>
+        <v>0.1133726170788096</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -3175,19 +3175,19 @@
         <v>117939</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>98639</v>
+        <v>98720</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142190</v>
+        <v>142089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1050254549726428</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08783858246743295</v>
+        <v>0.08791125516961429</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1266212766258383</v>
+        <v>0.126531678475587</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>127136</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107566</v>
+        <v>109395</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>148586</v>
+        <v>147955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.23236834241719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1965991942774667</v>
+        <v>0.199941566359381</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2715716711418742</v>
+        <v>0.2704195429421512</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>130</v>
@@ -3225,19 +3225,19 @@
         <v>129788</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111827</v>
+        <v>111512</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>151202</v>
+        <v>150819</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2253961390804216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1942047603081783</v>
+        <v>0.1936567094176317</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2625849433985556</v>
+        <v>0.2619200261505069</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>255</v>
@@ -3246,19 +3246,19 @@
         <v>256924</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>229457</v>
+        <v>228548</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>290543</v>
+        <v>286689</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2287931790120459</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2043336099649305</v>
+        <v>0.2035235331548113</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2587303173116872</v>
+        <v>0.2552985965185884</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>156722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>135475</v>
+        <v>134225</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>176951</v>
+        <v>177436</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2864415241393091</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2476094135768261</v>
+        <v>0.2453235162843072</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3234156066314929</v>
+        <v>0.3243007565105134</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>146</v>
@@ -3296,19 +3296,19 @@
         <v>148096</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>128399</v>
+        <v>128299</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>168761</v>
+        <v>168049</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2571909920697609</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.222984117592669</v>
+        <v>0.222810193330741</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2930792312441139</v>
+        <v>0.2918414428081882</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>300</v>
@@ -3317,19 +3317,19 @@
         <v>304818</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>274048</v>
+        <v>278589</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>332058</v>
+        <v>337580</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.271442616794689</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2440419208168445</v>
+        <v>0.2480858181009312</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2957001651326964</v>
+        <v>0.3006178298752868</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>77542</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61908</v>
+        <v>63186</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93565</v>
+        <v>94600</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1417238148680127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1131497130150777</v>
+        <v>0.1154855597343943</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1710102912814093</v>
+        <v>0.1729018166677656</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -3367,19 +3367,19 @@
         <v>85091</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68374</v>
+        <v>69353</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>103229</v>
+        <v>103624</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1477729225181788</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1187423164334964</v>
+        <v>0.1204419316975153</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1792728752406599</v>
+        <v>0.1799592132649112</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>158</v>
@@ -3388,19 +3388,19 @@
         <v>162633</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>140438</v>
+        <v>140653</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>186931</v>
+        <v>188798</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.14482563896293</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1250611616270719</v>
+        <v>0.1252525920613544</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1664634666568557</v>
+        <v>0.1681264388053149</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>118386</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>99528</v>
+        <v>101588</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>137801</v>
+        <v>139477</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2163756886307894</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1819079391574569</v>
+        <v>0.1856735789019187</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2518592455399917</v>
+        <v>0.2549232313274953</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>156</v>
@@ -3438,19 +3438,19 @@
         <v>162255</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>140632</v>
+        <v>140238</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>185179</v>
+        <v>183690</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2817796146827457</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2442286557213104</v>
+        <v>0.243544519800112</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3215913510413617</v>
+        <v>0.3190051460390609</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>271</v>
@@ -3459,19 +3459,19 @@
         <v>280641</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>251208</v>
+        <v>248083</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>313383</v>
+        <v>308017</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2499131102576923</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2237024720025489</v>
+        <v>0.2209199433350459</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2790695477934227</v>
+        <v>0.2742913439186638</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>114502</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>96962</v>
+        <v>95560</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136042</v>
+        <v>137466</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1404128895565824</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.118903984833185</v>
+        <v>0.1171847288763389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1668272617288369</v>
+        <v>0.1685735135601113</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -3584,19 +3584,19 @@
         <v>116508</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96878</v>
+        <v>97285</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>136369</v>
+        <v>138226</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1248866945765676</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1038452329921124</v>
+        <v>0.1042818776650639</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1461769387533239</v>
+        <v>0.148167159056384</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>217</v>
@@ -3605,19 +3605,19 @@
         <v>231010</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>205592</v>
+        <v>204678</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>262713</v>
+        <v>264429</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.132128333880041</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1175906773304504</v>
+        <v>0.1170674126138103</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1502612439822683</v>
+        <v>0.1512429176787553</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>202760</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>179122</v>
+        <v>177445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>230929</v>
+        <v>226593</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.248642773183317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2196559376246225</v>
+        <v>0.2175993803528955</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2831864799630432</v>
+        <v>0.2778687426679795</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -3655,19 +3655,19 @@
         <v>237252</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>212849</v>
+        <v>211430</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>267508</v>
+        <v>266653</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.254314538068701</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2281571688799822</v>
+        <v>0.2266359712686617</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2867462884272699</v>
+        <v>0.2858302227681239</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>413</v>
@@ -3676,19 +3676,19 @@
         <v>440012</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>403538</v>
+        <v>401980</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>480212</v>
+        <v>478843</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2516691458417629</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2308079111753149</v>
+        <v>0.2299168272660937</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2746620364219751</v>
+        <v>0.2738790928203499</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>223690</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>200655</v>
+        <v>197890</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>254024</v>
+        <v>250310</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2743095882445358</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2460620456927623</v>
+        <v>0.2426716710745196</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3115083277889205</v>
+        <v>0.3069528214413835</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>210</v>
@@ -3726,19 +3726,19 @@
         <v>226484</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>199304</v>
+        <v>200381</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>254427</v>
+        <v>256939</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2427719167707905</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2136371683808199</v>
+        <v>0.2147925461449678</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2727254625653151</v>
+        <v>0.2754175007197708</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>423</v>
@@ -3747,19 +3747,19 @@
         <v>450174</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>414186</v>
+        <v>414216</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>485180</v>
+        <v>487032</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.257481537613391</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2368980396986411</v>
+        <v>0.23691519638693</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2775036203720315</v>
+        <v>0.2785627852882497</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>104147</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85127</v>
+        <v>85742</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126540</v>
+        <v>127844</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1277151759720222</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1043905917021682</v>
+        <v>0.1051453124211674</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1551753273608844</v>
+        <v>0.1567746055153043</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>135</v>
@@ -3797,19 +3797,19 @@
         <v>147377</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>125384</v>
+        <v>125207</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>171984</v>
+        <v>174157</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1579760180003419</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1344014354137501</v>
+        <v>0.1342111995656071</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1843531759682014</v>
+        <v>0.1866825753998511</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>232</v>
@@ -3818,19 +3818,19 @@
         <v>251524</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>224083</v>
+        <v>222981</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>283241</v>
+        <v>285759</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1438619286648317</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1281667736613371</v>
+        <v>0.1275363483001571</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1620026423783642</v>
+        <v>0.1634426298007016</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>170367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147742</v>
+        <v>146111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195875</v>
+        <v>193608</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2089195730435426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.181174683992826</v>
+        <v>0.1791753278463539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2401995336795795</v>
+        <v>0.2374199463438583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>186</v>
@@ -3868,19 +3868,19 @@
         <v>205287</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>179387</v>
+        <v>179800</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>232305</v>
+        <v>231815</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2200508325835989</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1922884700235849</v>
+        <v>0.1927304116029495</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2490121230706808</v>
+        <v>0.2484868615362359</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>345</v>
@@ -3889,19 +3889,19 @@
         <v>375654</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>345304</v>
+        <v>344624</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>411906</v>
+        <v>414440</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2148590539999733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1974999202273961</v>
+        <v>0.1971109916720047</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2355938247207229</v>
+        <v>0.2370433282609369</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>58994</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45045</v>
+        <v>45159</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75887</v>
+        <v>75545</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09841037146931159</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07514050270160481</v>
+        <v>0.07533059798297573</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1265898519287617</v>
+        <v>0.1260192172073345</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -4014,19 +4014,19 @@
         <v>51608</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39126</v>
+        <v>38836</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66044</v>
+        <v>66204</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07423852641586871</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05628278697524147</v>
+        <v>0.05586622616904868</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09500478181854827</v>
+        <v>0.09523577876583166</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -4035,19 +4035,19 @@
         <v>110602</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91186</v>
+        <v>92320</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132798</v>
+        <v>132391</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08543115997334379</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07043415645472514</v>
+        <v>0.07130999684429574</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1025761286288648</v>
+        <v>0.1022614526847763</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>187052</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164680</v>
+        <v>164479</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211832</v>
+        <v>210348</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3120278395926031</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2747076198767757</v>
+        <v>0.2743727978314326</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3533646095399156</v>
+        <v>0.3508886742592879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>174</v>
@@ -4085,19 +4085,19 @@
         <v>182236</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>159492</v>
+        <v>156177</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205031</v>
+        <v>205408</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2621498271659257</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2294320681623622</v>
+        <v>0.2246639327574483</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2949404718116124</v>
+        <v>0.2954834271940421</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>348</v>
@@ -4106,19 +4106,19 @@
         <v>369288</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>337883</v>
+        <v>335830</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>403816</v>
+        <v>401886</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2852455533892523</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2609875336298463</v>
+        <v>0.2594017024620816</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3119156802398233</v>
+        <v>0.3104250956572741</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>173691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>151622</v>
+        <v>149519</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>197665</v>
+        <v>196818</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2897406503771625</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.252926474805094</v>
+        <v>0.2494174974308814</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3297321269853987</v>
+        <v>0.3283188044131212</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>201</v>
@@ -4156,19 +4156,19 @@
         <v>215458</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>193369</v>
+        <v>191159</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>242405</v>
+        <v>239003</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3099406896599828</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2781649831230978</v>
+        <v>0.2749852346524794</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3487032281364207</v>
+        <v>0.3438097199847866</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>361</v>
@@ -4177,19 +4177,19 @@
         <v>389150</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>355900</v>
+        <v>354557</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>423309</v>
+        <v>423985</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.300587177876363</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2749045792969547</v>
+        <v>0.2738670252964532</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3269725644196728</v>
+        <v>0.3274942692839451</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>68708</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52778</v>
+        <v>52734</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85811</v>
+        <v>86148</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1146134767093498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08804113810649335</v>
+        <v>0.08796784011908497</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1431440984237111</v>
+        <v>0.1437068521631524</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -4227,19 +4227,19 @@
         <v>83145</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66711</v>
+        <v>66261</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101221</v>
+        <v>102011</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1196050734486039</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09596478836411097</v>
+        <v>0.0953179594711438</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.14560821460825</v>
+        <v>0.14674502075739</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>140</v>
@@ -4248,19 +4248,19 @@
         <v>151852</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130922</v>
+        <v>129711</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>177764</v>
+        <v>176311</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1172937433434491</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1011270865687941</v>
+        <v>0.1001911471782183</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1373081781295697</v>
+        <v>0.1361865588053091</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>111027</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92252</v>
+        <v>91336</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>133009</v>
+        <v>133120</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1852076618515732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1538888196479886</v>
+        <v>0.1523613187444326</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2218769010945717</v>
+        <v>0.2220613520509155</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -4298,19 +4298,19 @@
         <v>162713</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>139619</v>
+        <v>139473</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>185133</v>
+        <v>184858</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2340658833096189</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.200844270222822</v>
+        <v>0.2006350202114771</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2663175134460271</v>
+        <v>0.265921888381881</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>245</v>
@@ -4319,19 +4319,19 @@
         <v>273740</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>245828</v>
+        <v>242811</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>306421</v>
+        <v>306708</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2114423654175918</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1898822570816645</v>
+        <v>0.1875519530962469</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2366855495788746</v>
+        <v>0.2369076207832117</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>88665</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72235</v>
+        <v>72890</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106650</v>
+        <v>107208</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1171309848053419</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0954250169287305</v>
+        <v>0.09629054056290706</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1408896413638099</v>
+        <v>0.1416262640533242</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -4444,19 +4444,19 @@
         <v>63162</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>48851</v>
+        <v>48401</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>79780</v>
+        <v>80027</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07191790833722678</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05562257796568237</v>
+        <v>0.05511103603489201</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09083969937772404</v>
+        <v>0.09112074864459392</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>152</v>
@@ -4465,19 +4465,19 @@
         <v>151827</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>127887</v>
+        <v>129676</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>174623</v>
+        <v>176488</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09284789036589361</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07820741209854369</v>
+        <v>0.07930135504190833</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1067880196791936</v>
+        <v>0.1079289563133702</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>190881</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>167256</v>
+        <v>169219</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>214290</v>
+        <v>214883</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2521627491834618</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2209527017357474</v>
+        <v>0.2235452042094476</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2830863753534886</v>
+        <v>0.2838702264186368</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>195</v>
@@ -4515,19 +4515,19 @@
         <v>204795</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>181706</v>
+        <v>181875</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>231262</v>
+        <v>231834</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2331848239221755</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2068959456386663</v>
+        <v>0.2070879395413849</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2633208423007248</v>
+        <v>0.2639723289289088</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>382</v>
@@ -4536,19 +4536,19 @@
         <v>395676</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>359416</v>
+        <v>357721</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>430315</v>
+        <v>429081</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2419700618597049</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2197956820155011</v>
+        <v>0.2187589778726995</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.263153254019928</v>
+        <v>0.262398534380891</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>198810</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>176268</v>
+        <v>177008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>225425</v>
+        <v>222380</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.262636363113067</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2328583290960747</v>
+        <v>0.2338349513569929</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2977963867693407</v>
+        <v>0.2937738587065166</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>211</v>
@@ -4586,19 +4586,19 @@
         <v>229399</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>201024</v>
+        <v>201976</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>254175</v>
+        <v>256542</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2612000283580102</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2288913780387942</v>
+        <v>0.2299754998973467</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2894102686264835</v>
+        <v>0.2921061047077163</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>409</v>
@@ -4607,19 +4607,19 @@
         <v>428209</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>392069</v>
+        <v>392280</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>465196</v>
+        <v>462428</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2618649346850921</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2397640590295591</v>
+        <v>0.2398932886875963</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2844838276731844</v>
+        <v>0.2827915813382426</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>113841</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>95957</v>
+        <v>94630</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>133745</v>
+        <v>135534</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1503895292757236</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1267633215237373</v>
+        <v>0.1250100383718894</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1766826150010012</v>
+        <v>0.1790467259970973</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>125</v>
@@ -4657,19 +4657,19 @@
         <v>142193</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>121617</v>
+        <v>121801</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>167367</v>
+        <v>166995</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1619044979603025</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1384769806551939</v>
+        <v>0.1386857105435876</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1905683226653772</v>
+        <v>0.1901456681414221</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>238</v>
@@ -4678,19 +4678,19 @@
         <v>256034</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>224227</v>
+        <v>225917</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>286880</v>
+        <v>289849</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1565740027483949</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1371226859941587</v>
+        <v>0.1381562432340062</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1754377186470917</v>
+        <v>0.1772533286111336</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>164779</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>142396</v>
+        <v>144273</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>185454</v>
+        <v>187024</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2176803736224056</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1881117701882994</v>
+        <v>0.190590429177388</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2449935554938487</v>
+        <v>0.2470672376045927</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>209</v>
@@ -4728,19 +4728,19 @@
         <v>238702</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>214767</v>
+        <v>211354</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>267648</v>
+        <v>268927</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2717927414222851</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2445396954075604</v>
+        <v>0.2406532064449422</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3047513071677713</v>
+        <v>0.306207408938049</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>375</v>
@@ -4749,19 +4749,19 @@
         <v>403481</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>369544</v>
+        <v>367474</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>441662</v>
+        <v>441526</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2467431103409144</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2259892399622164</v>
+        <v>0.224723737313235</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.270091878248318</v>
+        <v>0.2700088575188311</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>329509</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>297418</v>
+        <v>296198</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>368146</v>
+        <v>363645</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1211852875808449</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1093829963533201</v>
+        <v>0.1089344915126355</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.135395140574036</v>
+        <v>0.1337397828571644</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>273</v>
@@ -4874,19 +4874,19 @@
         <v>281869</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>250641</v>
+        <v>253489</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>315738</v>
+        <v>314975</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09145244121436281</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0813204442604496</v>
+        <v>0.08224454070289278</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1024410981493188</v>
+        <v>0.1021938176191386</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>586</v>
@@ -4895,19 +4895,19 @@
         <v>611378</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>560961</v>
+        <v>563592</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>661948</v>
+        <v>657550</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1053883905713705</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09669762069587043</v>
+        <v>0.09715115119451578</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.114105583292288</v>
+        <v>0.1133474626978891</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>707829</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>663343</v>
+        <v>662101</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>757804</v>
+        <v>754331</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2603225271678248</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2439616034676893</v>
+        <v>0.2435046681818523</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2787019422417042</v>
+        <v>0.2774245286944833</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>723</v>
@@ -4945,19 +4945,19 @@
         <v>754070</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>706097</v>
+        <v>705336</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>802548</v>
+        <v>802231</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2446581775924233</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2290934040034715</v>
+        <v>0.2288464666795036</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2603868672652458</v>
+        <v>0.2602838118309526</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1398</v>
@@ -4966,19 +4966,19 @@
         <v>1461900</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1394631</v>
+        <v>1391903</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1530448</v>
+        <v>1528799</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2520001447792362</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.240404368320639</v>
+        <v>0.2399342072148789</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2638163464519503</v>
+        <v>0.2635321511723172</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>752913</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>706180</v>
+        <v>705634</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>801677</v>
+        <v>797295</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2769031059591977</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2597158219084326</v>
+        <v>0.259515206892136</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2948372440760425</v>
+        <v>0.2932257106457117</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>768</v>
@@ -5016,19 +5016,19 @@
         <v>819437</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>769441</v>
+        <v>764390</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>869059</v>
+        <v>866994</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2658663829867103</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2496450614716058</v>
+        <v>0.2480064855871615</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2819663039990825</v>
+        <v>0.281296363490914</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1493</v>
@@ -5037,19 +5037,19 @@
         <v>1572350</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1498839</v>
+        <v>1500533</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1641894</v>
+        <v>1640761</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2710393560184916</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2583676032995553</v>
+        <v>0.2586596824978977</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2830272650655321</v>
+        <v>0.282832016586681</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>364238</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>326708</v>
+        <v>328969</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>397299</v>
+        <v>397696</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1339579729362562</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1201554446593967</v>
+        <v>0.1209867380758588</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1461169732886069</v>
+        <v>0.14626296076775</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>420</v>
@@ -5087,19 +5087,19 @@
         <v>457805</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>416538</v>
+        <v>419911</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>502390</v>
+        <v>500337</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1485348718140669</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1351458956770366</v>
+        <v>0.1362400415313318</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1630004956070428</v>
+        <v>0.1623344378660604</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>768</v>
@@ -5108,19 +5108,19 @@
         <v>822043</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>764361</v>
+        <v>768115</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>875036</v>
+        <v>874703</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.141702598777053</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1317594845587551</v>
+        <v>0.132406503904543</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1508373478745965</v>
+        <v>0.1507800887560174</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>564559</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>523291</v>
+        <v>523839</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>612067</v>
+        <v>610469</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2076311063558764</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1924537617027382</v>
+        <v>0.192655422920089</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2251034112162647</v>
+        <v>0.2245157238147977</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>697</v>
@@ -5158,19 +5158,19 @@
         <v>768957</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>721140</v>
+        <v>719568</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>817497</v>
+        <v>819112</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2494881263924367</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2339740942044537</v>
+        <v>0.2334639647124452</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2652370941029626</v>
+        <v>0.2657609778276425</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1236</v>
@@ -5179,19 +5179,19 @@
         <v>1333516</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1264261</v>
+        <v>1271955</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1398633</v>
+        <v>1395514</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2298695098538487</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2179314705919975</v>
+        <v>0.2192577445820949</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2410942345280161</v>
+        <v>0.2405566197600016</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>58344</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42105</v>
+        <v>43349</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77004</v>
+        <v>77425</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09586214608984658</v>
+        <v>0.09586214608984661</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06918091070424939</v>
+        <v>0.07122442576395173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1265215759170075</v>
+        <v>0.127212940404437</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -5544,19 +5544,19 @@
         <v>62521</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50468</v>
+        <v>50768</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77433</v>
+        <v>78456</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09384938246406589</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07575614104150377</v>
+        <v>0.07620607068738137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1162323958576961</v>
+        <v>0.1177684745828741</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>138</v>
@@ -5565,19 +5565,19 @@
         <v>120865</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99388</v>
+        <v>99984</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144281</v>
+        <v>143646</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09481032017476738</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07796325215054514</v>
+        <v>0.07843081557595473</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1131782006625937</v>
+        <v>0.1126803880288692</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>144315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>123204</v>
+        <v>122703</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169670</v>
+        <v>171380</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2371178773980659</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2024314331731408</v>
+        <v>0.2016080405161096</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2787768207808928</v>
+        <v>0.2815859592299192</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>202</v>
@@ -5615,19 +5615,19 @@
         <v>127132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111816</v>
+        <v>109486</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>144161</v>
+        <v>143458</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1908352905807267</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1678445939054011</v>
+        <v>0.1643473844564736</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2163969151223901</v>
+        <v>0.2153411410784093</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>340</v>
@@ -5636,19 +5636,19 @@
         <v>271448</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>244835</v>
+        <v>244677</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>303904</v>
+        <v>301333</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2129316174677677</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1920561567054526</v>
+        <v>0.1919320216562486</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2383917015501372</v>
+        <v>0.2363746909873306</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>155684</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>135018</v>
+        <v>135399</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>178765</v>
+        <v>178951</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.255797017787176</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2218417807269529</v>
+        <v>0.2224671973680478</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2937201720267255</v>
+        <v>0.2940255848170842</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>291</v>
@@ -5686,19 +5686,19 @@
         <v>164275</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>147862</v>
+        <v>147737</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>182139</v>
+        <v>183476</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2465892271000748</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.221951821422634</v>
+        <v>0.2217652933025655</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2734051255070212</v>
+        <v>0.2754110301227135</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>476</v>
@@ -5707,19 +5707,19 @@
         <v>319959</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>293840</v>
+        <v>293268</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>349458</v>
+        <v>348988</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2509852292883841</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2304965796777464</v>
+        <v>0.2300479066262465</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2741253648898982</v>
+        <v>0.2737563632611602</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>114301</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>95312</v>
+        <v>96884</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>136273</v>
+        <v>135715</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1878025921632145</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1566031373850854</v>
+        <v>0.1591850125774261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2239030123739121</v>
+        <v>0.2229868086091168</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>244</v>
@@ -5757,19 +5757,19 @@
         <v>129592</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>112457</v>
+        <v>114424</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145376</v>
+        <v>145997</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1945272512757328</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.168806028625885</v>
+        <v>0.1717596675670346</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2182205173832099</v>
+        <v>0.2191521867033186</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>376</v>
@@ -5778,19 +5778,19 @@
         <v>243893</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>220495</v>
+        <v>217823</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>269408</v>
+        <v>270582</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1913167508224942</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1729625999839523</v>
+        <v>0.1708668331222842</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2113315712063208</v>
+        <v>0.2122527981905467</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>135979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>116212</v>
+        <v>115867</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>158492</v>
+        <v>156787</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2234203665616969</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1909429752846599</v>
+        <v>0.1903753182496642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2604114182133497</v>
+        <v>0.2576090101106172</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -5828,19 +5828,19 @@
         <v>182668</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>164811</v>
+        <v>164482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>201306</v>
+        <v>203218</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2741988485793998</v>
+        <v>0.2741988485793999</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2473936570446961</v>
+        <v>0.2469001063339261</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3021765685637682</v>
+        <v>0.3050464534645217</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>502</v>
@@ -5849,19 +5849,19 @@
         <v>318647</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>292830</v>
+        <v>291673</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>346173</v>
+        <v>347193</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2499560822465866</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2297050092584621</v>
+        <v>0.2287971246014966</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2715486206966815</v>
+        <v>0.272348411323567</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>77420</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61206</v>
+        <v>59955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97240</v>
+        <v>97613</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0919608032365461</v>
+        <v>0.09196080323654607</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07270245967460444</v>
+        <v>0.07121596454354504</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1155037510373439</v>
+        <v>0.1159468890739249</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -5974,19 +5974,19 @@
         <v>67170</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53665</v>
+        <v>52271</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83121</v>
+        <v>83002</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07181236215531815</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05737340076409983</v>
+        <v>0.05588369391159899</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08886605027274924</v>
+        <v>0.0887385150774168</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>153</v>
@@ -5995,19 +5995,19 @@
         <v>144590</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>122399</v>
+        <v>122600</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>170857</v>
+        <v>167888</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08135667953486066</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06887043488463088</v>
+        <v>0.06898354165526369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09613648780866263</v>
+        <v>0.09446625897873985</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>188587</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>161855</v>
+        <v>159511</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>217158</v>
+        <v>217083</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2240085764613756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1922550402369415</v>
+        <v>0.1894711690544879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2579451455871383</v>
+        <v>0.2578568843571469</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>277</v>
@@ -6045,19 +6045,19 @@
         <v>202131</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>180685</v>
+        <v>180412</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>226183</v>
+        <v>225196</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2161004138854438</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1931718547759517</v>
+        <v>0.192880661367941</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2418146450934688</v>
+        <v>0.2407596827190821</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>443</v>
@@ -6066,19 +6066,19 @@
         <v>390718</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>359957</v>
+        <v>356487</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>428823</v>
+        <v>426550</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2198465108271092</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2025380214738504</v>
+        <v>0.2005856317407007</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2412872699524319</v>
+        <v>0.2400082263633481</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>265629</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>235885</v>
+        <v>238380</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>298322</v>
+        <v>297516</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3155202741380044</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.28019034724138</v>
+        <v>0.2831531417989244</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3543544225141981</v>
+        <v>0.3533972707161709</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>408</v>
@@ -6116,19 +6116,19 @@
         <v>263589</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>241656</v>
+        <v>239974</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>289693</v>
+        <v>286463</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2818060313928255</v>
+        <v>0.2818060313928254</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2583575019541117</v>
+        <v>0.2565588271129757</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3097134540531502</v>
+        <v>0.3062608241568687</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>654</v>
@@ -6137,19 +6137,19 @@
         <v>529218</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>489015</v>
+        <v>489873</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>569106</v>
+        <v>570346</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2977764695857199</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2751555881889175</v>
+        <v>0.2756382459081577</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3202205447836061</v>
+        <v>0.3209181929991463</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>138651</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114712</v>
+        <v>117133</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>159202</v>
+        <v>162856</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1646933238147985</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.136258348786327</v>
+        <v>0.1391339232197128</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.189104096650353</v>
+        <v>0.1934444987300059</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>251</v>
@@ -6187,19 +6187,19 @@
         <v>162539</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>144361</v>
+        <v>142818</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>183738</v>
+        <v>181227</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1737721551345334</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1543382911480349</v>
+        <v>0.1526884880340715</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1964357388916944</v>
+        <v>0.1937519637220461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>405</v>
@@ -6208,19 +6208,19 @@
         <v>301190</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>276532</v>
+        <v>273619</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>334534</v>
+        <v>331507</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1694715123601595</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1555973146580678</v>
+        <v>0.1539579220413819</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1882332767458333</v>
+        <v>0.186529979417361</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>171588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148230</v>
+        <v>149851</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>196612</v>
+        <v>197491</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2038170223492755</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1760711084740605</v>
+        <v>0.1779967816847103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2335408472418026</v>
+        <v>0.2345850285020888</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>351</v>
@@ -6258,19 +6258,19 @@
         <v>239928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>217997</v>
+        <v>217960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>264750</v>
+        <v>264535</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2565090374318792</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2330626753982498</v>
+        <v>0.2330230699630747</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2830468097624845</v>
+        <v>0.2828171446982151</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>534</v>
@@ -6279,19 +6279,19 @@
         <v>411516</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>372151</v>
+        <v>375017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>445031</v>
+        <v>449210</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2315488276921508</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2093995502911174</v>
+        <v>0.2110118608085628</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2504067919942756</v>
+        <v>0.2527585137855322</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>55774</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41467</v>
+        <v>39434</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76722</v>
+        <v>75207</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0840520568301709</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06249102801541982</v>
+        <v>0.05942768857888393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.115621595025716</v>
+        <v>0.1133383739626607</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>80</v>
@@ -6404,19 +6404,19 @@
         <v>61169</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49230</v>
+        <v>48675</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77512</v>
+        <v>75262</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08405275778744647</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06764689183598641</v>
+        <v>0.06688430823844804</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1065083240791619</v>
+        <v>0.103417099891104</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>121</v>
@@ -6425,19 +6425,19 @@
         <v>116943</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>94782</v>
+        <v>97299</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>140386</v>
+        <v>143894</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08405242347842594</v>
+        <v>0.08405242347842592</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06812427052934426</v>
+        <v>0.06993347754944819</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1009015889270263</v>
+        <v>0.1034235159667246</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>218791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193618</v>
+        <v>192000</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>248730</v>
+        <v>247890</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.329722257551015</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2917852136863381</v>
+        <v>0.2893471291185353</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3748412656734325</v>
+        <v>0.37357477757921</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>261</v>
@@ -6475,19 +6475,19 @@
         <v>214413</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192362</v>
+        <v>191080</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>239123</v>
+        <v>239207</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2946234566871297</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.264323557298968</v>
+        <v>0.262562328667552</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3285785739830184</v>
+        <v>0.3286940308701236</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>440</v>
@@ -6496,19 +6496,19 @@
         <v>433204</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>399197</v>
+        <v>395612</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>475604</v>
+        <v>469096</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3113632012445727</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2869207056661415</v>
+        <v>0.2843445221295616</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3418384209920755</v>
+        <v>0.3371606481379596</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>170526</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>146911</v>
+        <v>147216</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>194629</v>
+        <v>197967</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2569852880471034</v>
+        <v>0.2569852880471033</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2213974203561055</v>
+        <v>0.2218567473726193</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2933089663105373</v>
+        <v>0.2983396404563051</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>270</v>
@@ -6546,19 +6546,19 @@
         <v>206834</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>187593</v>
+        <v>185063</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>233629</v>
+        <v>231243</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2842097094440247</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2577713219928774</v>
+        <v>0.2542942933365689</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3210288241140552</v>
+        <v>0.317749942754102</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>427</v>
@@ -6567,19 +6567,19 @@
         <v>377360</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>347749</v>
+        <v>344119</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>417089</v>
+        <v>413252</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2712255091667562</v>
+        <v>0.2712255091667563</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2499431147115609</v>
+        <v>0.2473341935206894</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2997811318621902</v>
+        <v>0.2970232467820538</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>102662</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82570</v>
+        <v>83367</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123004</v>
+        <v>123116</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1547138549853972</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.124434135572797</v>
+        <v>0.1256362254458831</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1853694725329556</v>
+        <v>0.185537569733163</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>146</v>
@@ -6617,19 +6617,19 @@
         <v>100348</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86099</v>
+        <v>84269</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>116874</v>
+        <v>115820</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1378878055829234</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1183079133270044</v>
+        <v>0.1157938142428042</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1605960614777328</v>
+        <v>0.1591479920440267</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>244</v>
@@ -6638,19 +6638,19 @@
         <v>203010</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>178840</v>
+        <v>177036</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>231258</v>
+        <v>228705</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1459126885411941</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1285407251830105</v>
+        <v>0.1272435285143571</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1662158786088625</v>
+        <v>0.1643804026372249</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>115809</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98224</v>
+        <v>94166</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>139445</v>
+        <v>137093</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1745265425863136</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.148025686711627</v>
+        <v>0.1419101254637287</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2101457781599179</v>
+        <v>0.2066018075165885</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>203</v>
@@ -6688,19 +6688,19 @@
         <v>144987</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126506</v>
+        <v>127547</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165488</v>
+        <v>165297</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1992262704984758</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1738315175113583</v>
+        <v>0.1752619005002182</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2273970189237798</v>
+        <v>0.2271339300480029</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>318</v>
@@ -6709,19 +6709,19 @@
         <v>260796</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>233470</v>
+        <v>236198</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>290592</v>
+        <v>294483</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1874461775690511</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1678054235702191</v>
+        <v>0.1697665186029226</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2088618008241591</v>
+        <v>0.2116580062926053</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>58761</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44753</v>
+        <v>45180</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74695</v>
+        <v>75348</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07574681682941055</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05769052404958359</v>
+        <v>0.05824006479483741</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09628715619928356</v>
+        <v>0.0971291795262175</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>89</v>
@@ -6834,19 +6834,19 @@
         <v>68414</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55788</v>
+        <v>54821</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85001</v>
+        <v>82986</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0721863330950349</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05886350318333539</v>
+        <v>0.05784344063912922</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08968706616753468</v>
+        <v>0.0875613248957849</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -6855,19 +6855,19 @@
         <v>127175</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>107608</v>
+        <v>108325</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>150334</v>
+        <v>150591</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07378891596826954</v>
+        <v>0.07378891596826953</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06243600157728346</v>
+        <v>0.06285190429396735</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08722606546457361</v>
+        <v>0.08737495372277823</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>186244</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>161777</v>
+        <v>161766</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>211966</v>
+        <v>210786</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2400818928246521</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2085427588153473</v>
+        <v>0.208528305403661</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2732394590542395</v>
+        <v>0.2717189236495433</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>264</v>
@@ -6905,19 +6905,19 @@
         <v>186202</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>167002</v>
+        <v>164857</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>206620</v>
+        <v>209058</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1964678564495386</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1762095351111348</v>
+        <v>0.1739455349649535</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2180119161913224</v>
+        <v>0.2205838983061309</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>447</v>
@@ -6926,19 +6926,19 @@
         <v>372446</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>341305</v>
+        <v>340093</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>406099</v>
+        <v>405579</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2160986462359286</v>
+        <v>0.2160986462359285</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1980300061363385</v>
+        <v>0.1973269634269338</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2356244534702798</v>
+        <v>0.2353233123181157</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>220412</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>196056</v>
+        <v>195717</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>248533</v>
+        <v>245948</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2841277012726134</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2527306785416047</v>
+        <v>0.2522935190934623</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3203773857488659</v>
+        <v>0.3170452695826533</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>385</v>
@@ -6976,19 +6976,19 @@
         <v>264587</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>240488</v>
+        <v>241621</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>286780</v>
+        <v>288512</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2791743900921971</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.253746734375295</v>
+        <v>0.2549424829810487</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3025904990208184</v>
+        <v>0.3044182839908101</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>626</v>
@@ -6997,19 +6997,19 @@
         <v>484999</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>451114</v>
+        <v>453871</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>519210</v>
+        <v>523392</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2814038881760941</v>
+        <v>0.281403888176094</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.261742843113847</v>
+        <v>0.2633425960016625</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3012535356761942</v>
+        <v>0.3036798089919602</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>138526</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>119803</v>
+        <v>117124</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>163063</v>
+        <v>159725</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.17857001009627</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1544354404913337</v>
+        <v>0.1509820631757638</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2101996188589585</v>
+        <v>0.2058978873163793</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>249</v>
@@ -7047,19 +7047,19 @@
         <v>161431</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>141953</v>
+        <v>142785</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>180955</v>
+        <v>180370</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1703310490483916</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1497788158067511</v>
+        <v>0.1506570993794931</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1909317853752354</v>
+        <v>0.1903142656280524</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>410</v>
@@ -7068,19 +7068,19 @@
         <v>299957</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>270439</v>
+        <v>271006</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>328280</v>
+        <v>330101</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1740394265761694</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1569128478583594</v>
+        <v>0.157241668179275</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1904731020328202</v>
+        <v>0.1915294769790873</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>171808</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>151469</v>
+        <v>151411</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>196363</v>
+        <v>196749</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2214735789770539</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1952552305585741</v>
+        <v>0.1951798887251259</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2531263412620249</v>
+        <v>0.2536244856706219</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>404</v>
@@ -7118,19 +7118,19 @@
         <v>267114</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>244520</v>
+        <v>244497</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>291304</v>
+        <v>292441</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2818403713148378</v>
+        <v>0.2818403713148379</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2580014587767027</v>
+        <v>0.2579770154113165</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3073645470676399</v>
+        <v>0.3085636855607086</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>609</v>
@@ -7139,19 +7139,19 @@
         <v>438922</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>405656</v>
+        <v>405980</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>475386</v>
+        <v>470670</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2546691230435384</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2353675083917248</v>
+        <v>0.2355554483730451</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2758260939959073</v>
+        <v>0.2730896639342491</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>250298</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>216880</v>
+        <v>218121</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>286748</v>
+        <v>287450</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08661390728377391</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07504992491128172</v>
+        <v>0.07547943963517342</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09922713637608976</v>
+        <v>0.0994700107056521</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>342</v>
@@ -7264,19 +7264,19 @@
         <v>259275</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>231934</v>
+        <v>232193</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>288091</v>
+        <v>287297</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07911870231157427</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0707753523670314</v>
+        <v>0.0708543549757449</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08791173077660099</v>
+        <v>0.08766954129600699</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>559</v>
@@ -7285,19 +7285,19 @@
         <v>509573</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>466854</v>
+        <v>466888</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>556749</v>
+        <v>556008</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08263098286813073</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07570374893665918</v>
+        <v>0.07570927021470983</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09028078456183378</v>
+        <v>0.09016070262973856</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>737938</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>684856</v>
+        <v>687101</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>787288</v>
+        <v>789118</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2553584115338384</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2369899085790833</v>
+        <v>0.2377668312994823</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2724357466301541</v>
+        <v>0.2730691676621716</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1004</v>
@@ -7335,19 +7335,19 @@
         <v>729878</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>689480</v>
+        <v>688406</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>774949</v>
+        <v>772263</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2227244340812909</v>
+        <v>0.222724434081291</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2103969362752259</v>
+        <v>0.2100693113592426</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2364781110849828</v>
+        <v>0.2356585597237369</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1670</v>
@@ -7356,19 +7356,19 @@
         <v>1467815</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1399922</v>
+        <v>1401115</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1543969</v>
+        <v>1540379</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.238016835678688</v>
+        <v>0.2380168356786881</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.22700752440347</v>
+        <v>0.2272009248952502</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2503656323692841</v>
+        <v>0.2497835459150777</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>812251</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>761961</v>
+        <v>763217</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>867329</v>
+        <v>865903</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2810739480306077</v>
+        <v>0.2810739480306076</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2636714822579092</v>
+        <v>0.2641061326256607</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.300133444677449</v>
+        <v>0.2996398500769832</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1354</v>
@@ -7406,19 +7406,19 @@
         <v>899285</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>859471</v>
+        <v>858944</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>942120</v>
+        <v>948053</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2744195348781259</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2622700792477268</v>
+        <v>0.262109434844613</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2874908137047205</v>
+        <v>0.2893011511932801</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2183</v>
@@ -7427,19 +7427,19 @@
         <v>1711535</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1641043</v>
+        <v>1646257</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1779046</v>
+        <v>1781718</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2775378173023484</v>
+        <v>0.2775378173023483</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.266106939714562</v>
+        <v>0.266952509224026</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2884851123026052</v>
+        <v>0.2889184864974833</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>494140</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>455207</v>
+        <v>452619</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>542279</v>
+        <v>534710</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1709939766073913</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1575213479524173</v>
+        <v>0.156625855003405</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1876521446200041</v>
+        <v>0.1850329446629878</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>890</v>
@@ -7477,19 +7477,19 @@
         <v>553910</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>518132</v>
+        <v>519469</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>591532</v>
+        <v>590773</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1690272142033293</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1581094776018672</v>
+        <v>0.1585174427752833</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1805078236700808</v>
+        <v>0.1802762922248178</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1435</v>
@@ -7498,19 +7498,19 @@
         <v>1048050</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>996444</v>
+        <v>994939</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1105764</v>
+        <v>1101748</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.169948846283676</v>
+        <v>0.1699488462836759</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1615805670680903</v>
+        <v>0.1613365440674066</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1793076108151996</v>
+        <v>0.1786563728708571</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>595185</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>552050</v>
+        <v>550752</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>638212</v>
+        <v>639266</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2059597565443888</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1910331740495415</v>
+        <v>0.1905840864458929</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2208491431472681</v>
+        <v>0.2212137557960222</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1294</v>
@@ -7548,19 +7548,19 @@
         <v>834696</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>795060</v>
+        <v>787280</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>882539</v>
+        <v>876155</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2547101145256797</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2426149595096459</v>
+        <v>0.2402407662314058</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2693096184365663</v>
+        <v>0.2673612373126089</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1963</v>
@@ -7569,19 +7569,19 @@
         <v>1429881</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1366034</v>
+        <v>1371837</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1493738</v>
+        <v>1490661</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2318655178671569</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2215122794534451</v>
+        <v>0.2224533245301379</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2422204251149299</v>
+        <v>0.2417213787047078</v>
       </c>
     </row>
     <row r="33">
